--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.file.tree.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.file.tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74357635-302D-434C-8587-C159768EE1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D85308-3E86-CB4A-A221-ED006A864DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50060" yWindow="-9280" windowWidth="33440" windowHeight="28880" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63620" yWindow="-7360" windowWidth="33440" windowHeight="28880" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="135">
   <si>
     <t>code</t>
   </si>
@@ -406,10 +406,6 @@
   </si>
   <si>
     <t>file.audio.other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLASE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -668,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,20 +685,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -729,41 +715,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1797,18 +1768,18 @@
   <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A41"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="2" width="55.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="11" customWidth="1"/>
+    <col min="1" max="2" width="55.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="9" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1819,15 +1790,15 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
@@ -1887,1036 +1858,1036 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="66">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="66">
+      <c r="A5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="20" customFormat="1">
+      <c r="A6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="8" t="str">
+      <c r="B6" s="11" t="str">
         <f>A$5</f>
         <v>b3885dad-75c0-46bc-a8e8-c34d0b036cda</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="23">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="8" t="str">
+      <c r="F6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" s="20" customFormat="1">
+      <c r="A7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="11" t="str">
         <f t="shared" ref="B7:B14" si="0">A$5</f>
         <v>b3885dad-75c0-46bc-a8e8-c34d0b036cda</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="23">
+      <c r="F7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="21">
         <v>2</v>
       </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="8" t="str">
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" s="20" customFormat="1">
+      <c r="A8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>b3885dad-75c0-46bc-a8e8-c34d0b036cda</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="23">
+      <c r="F8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="21">
         <v>3</v>
       </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="8" t="str">
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" s="20" customFormat="1">
+      <c r="A9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>b3885dad-75c0-46bc-a8e8-c34d0b036cda</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="23">
+      <c r="F9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="21">
         <v>4</v>
       </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="8" t="str">
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" s="20" customFormat="1">
+      <c r="A10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>b3885dad-75c0-46bc-a8e8-c34d0b036cda</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="23">
+      <c r="F10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="21">
         <v>5</v>
       </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="8" t="str">
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" s="20" customFormat="1">
+      <c r="A11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>b3885dad-75c0-46bc-a8e8-c34d0b036cda</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="F11" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="21">
         <v>6</v>
       </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="8" t="str">
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" s="20" customFormat="1">
+      <c r="A12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>b3885dad-75c0-46bc-a8e8-c34d0b036cda</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="23">
+      <c r="F12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="21">
         <v>7</v>
       </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="8" t="str">
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" s="20" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>b3885dad-75c0-46bc-a8e8-c34d0b036cda</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="23">
+      <c r="F13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="21">
         <v>8</v>
       </c>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="8" t="str">
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" s="20" customFormat="1">
+      <c r="A14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>b3885dad-75c0-46bc-a8e8-c34d0b036cda</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="F14" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="21">
         <v>9</v>
       </c>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="66">
-      <c r="A15" s="15" t="s">
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" s="20" customFormat="1" ht="66">
+      <c r="A15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="16">
+        <v>2</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="20" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="20">
-        <v>2</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="11" t="str">
         <f>A$15</f>
         <v>92684808-8f0e-486c-b70d-7c92a153909a</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="23">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="8" t="str">
+      <c r="F16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="21">
+        <v>1</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" s="20" customFormat="1">
+      <c r="A17" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="11" t="str">
         <f t="shared" ref="B17:B21" si="1">A$15</f>
         <v>92684808-8f0e-486c-b70d-7c92a153909a</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="23">
+      <c r="F17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="21">
         <v>2</v>
       </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="8" t="str">
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" s="20" customFormat="1">
+      <c r="A18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>92684808-8f0e-486c-b70d-7c92a153909a</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="23">
+      <c r="F18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="21">
         <v>3</v>
       </c>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="8" t="str">
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" s="20" customFormat="1">
+      <c r="A19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>92684808-8f0e-486c-b70d-7c92a153909a</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="23">
+      <c r="F19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="21">
         <v>4</v>
       </c>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="8" t="str">
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" s="20" customFormat="1">
+      <c r="A20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="11" t="str">
         <f t="shared" si="1"/>
         <v>92684808-8f0e-486c-b70d-7c92a153909a</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="23">
+      <c r="F20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="21">
         <v>5</v>
       </c>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="8" t="str">
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" s="20" customFormat="1">
+      <c r="A21" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>92684808-8f0e-486c-b70d-7c92a153909a</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="23">
+      <c r="F21" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="21">
         <v>6</v>
       </c>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" ht="66">
-      <c r="A22" s="15" t="s">
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" s="20" customFormat="1" ht="66">
+      <c r="A22" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="16">
+        <v>3</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="20" customFormat="1">
+      <c r="A23" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="20">
-        <v>3</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="8" t="str">
+      <c r="B23" s="11" t="str">
         <f>A$22</f>
         <v>a3ca7089-836d-4b15-8342-fa2722f2f1cc</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="8" t="str">
+      <c r="F23" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="21">
+        <v>1</v>
+      </c>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" s="20" customFormat="1">
+      <c r="A24" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="11" t="str">
         <f t="shared" ref="B24:B28" si="2">A$22</f>
         <v>a3ca7089-836d-4b15-8342-fa2722f2f1cc</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="23">
+      <c r="F24" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="21">
         <v>2</v>
       </c>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="8" t="str">
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" s="20" customFormat="1">
+      <c r="A25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="11" t="str">
         <f t="shared" si="2"/>
         <v>a3ca7089-836d-4b15-8342-fa2722f2f1cc</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="23">
+      <c r="F25" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="21">
         <v>3</v>
       </c>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="8" t="str">
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" s="20" customFormat="1">
+      <c r="A26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="11" t="str">
         <f t="shared" si="2"/>
         <v>a3ca7089-836d-4b15-8342-fa2722f2f1cc</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="23">
+      <c r="F26" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="21">
         <v>4</v>
       </c>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="8" t="str">
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" s="20" customFormat="1">
+      <c r="A27" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="11" t="str">
         <f t="shared" si="2"/>
         <v>a3ca7089-836d-4b15-8342-fa2722f2f1cc</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="23">
+      <c r="F27" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="21">
         <v>5</v>
       </c>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="8" t="str">
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" s="20" customFormat="1">
+      <c r="A28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="11" t="str">
         <f t="shared" si="2"/>
         <v>a3ca7089-836d-4b15-8342-fa2722f2f1cc</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="23">
+      <c r="F28" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="21">
         <v>6</v>
       </c>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" ht="66">
-      <c r="A29" s="8" t="s">
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" s="20" customFormat="1" ht="66">
+      <c r="A29" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="16">
+        <v>4</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="20" customFormat="1">
+      <c r="A30" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="20">
-        <v>4</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="8" t="str">
+      <c r="B30" s="11" t="str">
         <f>A$29</f>
         <v>267fa263-3ea9-4da7-849f-98931ab3c806</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="23">
-        <v>1</v>
-      </c>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="8" t="str">
+      <c r="F30" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1</v>
+      </c>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" s="20" customFormat="1">
+      <c r="A31" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="11" t="str">
         <f t="shared" ref="B31:B36" si="3">A$29</f>
         <v>267fa263-3ea9-4da7-849f-98931ab3c806</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="23">
+      <c r="F31" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="21">
         <v>2</v>
       </c>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="8" t="str">
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" s="20" customFormat="1">
+      <c r="A32" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="11" t="str">
         <f t="shared" si="3"/>
         <v>267fa263-3ea9-4da7-849f-98931ab3c806</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="23">
+      <c r="F32" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="21">
         <v>3</v>
       </c>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="8" t="str">
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" s="20" customFormat="1">
+      <c r="A33" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="11" t="str">
         <f t="shared" si="3"/>
         <v>267fa263-3ea9-4da7-849f-98931ab3c806</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="23">
+      <c r="F33" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="21">
         <v>4</v>
       </c>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="8" t="str">
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" s="20" customFormat="1">
+      <c r="A34" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="11" t="str">
         <f t="shared" si="3"/>
         <v>267fa263-3ea9-4da7-849f-98931ab3c806</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="23">
+      <c r="F34" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="21">
         <v>5</v>
       </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="8" t="str">
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" s="20" customFormat="1">
+      <c r="A35" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="11" t="str">
         <f t="shared" si="3"/>
         <v>267fa263-3ea9-4da7-849f-98931ab3c806</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="23">
+      <c r="F35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="21">
         <v>6</v>
       </c>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="8" t="str">
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" s="20" customFormat="1">
+      <c r="A36" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="11" t="str">
         <f t="shared" si="3"/>
         <v>267fa263-3ea9-4da7-849f-98931ab3c806</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="23">
+      <c r="F36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="21">
         <v>7</v>
       </c>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" ht="66">
-      <c r="A37" s="8" t="s">
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" s="20" customFormat="1" ht="66">
+      <c r="A37" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="16">
+        <v>5</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="20" customFormat="1">
+      <c r="A38" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="20">
-        <v>5</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="8" t="str">
+      <c r="B38" s="11" t="str">
         <f>A$37</f>
         <v>68f6cd8d-739d-4e8c-a105-608c6e142f92</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="23">
-        <v>1</v>
-      </c>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="8" t="str">
+      <c r="F38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="21">
+        <v>1</v>
+      </c>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" s="20" customFormat="1">
+      <c r="A39" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="11" t="str">
         <f t="shared" ref="B39:B41" si="4">A$37</f>
         <v>68f6cd8d-739d-4e8c-a105-608c6e142f92</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="23">
+      <c r="F39" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="21">
         <v>2</v>
       </c>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="8" t="str">
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" s="20" customFormat="1">
+      <c r="A40" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="11" t="str">
         <f t="shared" si="4"/>
         <v>68f6cd8d-739d-4e8c-a105-608c6e142f92</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="13" t="s">
+      <c r="C40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="23">
+      <c r="F40" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="21">
         <v>3</v>
       </c>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="8" t="str">
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" s="20" customFormat="1">
+      <c r="A41" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="11" t="str">
         <f t="shared" si="4"/>
         <v>68f6cd8d-739d-4e8c-a105-608c6e142f92</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="23">
+      <c r="F41" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="21">
         <v>4</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2924,226 +2895,226 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1 F3:F5 F42:F1048576">
-    <cfRule type="cellIs" dxfId="73" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="113" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="114" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6 F8:F12">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.file.tree.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.file.tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D85308-3E86-CB4A-A221-ED006A864DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA297AC-694C-7746-A40D-BCD997BDEA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="63620" yWindow="-7360" windowWidth="33440" windowHeight="28880" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -113,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x-category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>file.doc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,6 +516,10 @@
   </si>
   <si>
     <t>2a0655a5-a898-4d29-a7e8-7c48b2271e74</t>
+  </si>
+  <si>
+    <t>x.category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -715,12 +717,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -730,91 +726,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1768,7 +1690,7 @@
   <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G5" sqref="G5:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1790,15 +1712,15 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
@@ -1858,9 +1780,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="66">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="66">
       <c r="A5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="10" t="s">
@@ -1870,13 +1792,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="H5" s="16">
         <v>1</v>
@@ -1885,9 +1807,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1">
+    <row r="6" spans="1:9" s="18" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="11" t="str">
         <f>A$5</f>
@@ -1897,25 +1819,25 @@
         <v>22</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="21">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" s="20" customFormat="1">
+        <v>134</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" s="18" customFormat="1">
       <c r="A7" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" ref="B7:B14" si="0">A$5</f>
@@ -1925,25 +1847,25 @@
         <v>22</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="21">
+        <v>134</v>
+      </c>
+      <c r="H7" s="19">
         <v>2</v>
       </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" s="20" customFormat="1">
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" s="18" customFormat="1">
       <c r="A8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1953,25 +1875,25 @@
         <v>22</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="21">
+        <v>134</v>
+      </c>
+      <c r="H8" s="19">
         <v>3</v>
       </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" s="20" customFormat="1">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" s="18" customFormat="1">
       <c r="A9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1981,25 +1903,25 @@
         <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="21">
+        <v>134</v>
+      </c>
+      <c r="H9" s="19">
         <v>4</v>
       </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" s="20" customFormat="1">
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" s="18" customFormat="1">
       <c r="A10" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2009,25 +1931,25 @@
         <v>22</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="21">
+        <v>134</v>
+      </c>
+      <c r="H10" s="19">
         <v>5</v>
       </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" s="20" customFormat="1">
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" s="18" customFormat="1">
       <c r="A11" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2037,25 +1959,25 @@
         <v>22</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="21">
+        <v>134</v>
+      </c>
+      <c r="H11" s="19">
         <v>6</v>
       </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" s="20" customFormat="1">
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" s="18" customFormat="1">
       <c r="A12" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2065,25 +1987,25 @@
         <v>22</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="21">
+        <v>134</v>
+      </c>
+      <c r="H12" s="19">
         <v>7</v>
       </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" s="20" customFormat="1">
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" s="18" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2093,25 +2015,25 @@
         <v>22</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="F13" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="21">
+        <v>134</v>
+      </c>
+      <c r="H13" s="19">
         <v>8</v>
       </c>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" s="20" customFormat="1">
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" s="18" customFormat="1">
       <c r="A14" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2121,41 +2043,41 @@
         <v>22</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="21">
+        <v>134</v>
+      </c>
+      <c r="H14" s="19">
         <v>9</v>
       </c>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" s="20" customFormat="1" ht="66">
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="66">
       <c r="A15" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="F15" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="H15" s="16">
         <v>2</v>
@@ -2164,9 +2086,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="20" customFormat="1">
+    <row r="16" spans="1:9" s="18" customFormat="1">
       <c r="A16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="11" t="str">
         <f>A$15</f>
@@ -2176,25 +2098,25 @@
         <v>22</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="21">
-        <v>1</v>
-      </c>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" s="20" customFormat="1">
+        <v>134</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" s="18" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" ref="B17:B21" si="1">A$15</f>
@@ -2204,25 +2126,25 @@
         <v>22</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="21">
+        <v>134</v>
+      </c>
+      <c r="H17" s="19">
         <v>2</v>
       </c>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" s="20" customFormat="1">
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" s="18" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
@@ -2232,25 +2154,25 @@
         <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="21">
+        <v>134</v>
+      </c>
+      <c r="H18" s="19">
         <v>3</v>
       </c>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" s="20" customFormat="1">
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" s="18" customFormat="1">
       <c r="A19" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
@@ -2260,25 +2182,25 @@
         <v>22</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="21">
+        <v>134</v>
+      </c>
+      <c r="H19" s="19">
         <v>4</v>
       </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" s="20" customFormat="1">
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" s="18" customFormat="1">
       <c r="A20" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="11" t="str">
         <f t="shared" si="1"/>
@@ -2288,25 +2210,25 @@
         <v>22</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="F20" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="21">
+        <v>134</v>
+      </c>
+      <c r="H20" s="19">
         <v>5</v>
       </c>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" s="20" customFormat="1">
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" s="18" customFormat="1">
       <c r="A21" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
@@ -2316,41 +2238,41 @@
         <v>22</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="21">
+        <v>134</v>
+      </c>
+      <c r="H21" s="19">
         <v>6</v>
       </c>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" s="20" customFormat="1" ht="66">
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="66">
       <c r="A22" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="F22" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="H22" s="16">
         <v>3</v>
@@ -2359,9 +2281,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="20" customFormat="1">
+    <row r="23" spans="1:9" s="18" customFormat="1">
       <c r="A23" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="11" t="str">
         <f>A$22</f>
@@ -2371,25 +2293,25 @@
         <v>22</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="F23" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="21">
-        <v>1</v>
-      </c>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" s="20" customFormat="1">
+        <v>134</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1</v>
+      </c>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" s="18" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" ref="B24:B28" si="2">A$22</f>
@@ -2399,25 +2321,25 @@
         <v>22</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="F24" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="21">
+        <v>134</v>
+      </c>
+      <c r="H24" s="19">
         <v>2</v>
       </c>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" s="20" customFormat="1">
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" s="18" customFormat="1">
       <c r="A25" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2427,25 +2349,25 @@
         <v>22</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="F25" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="21">
+        <v>134</v>
+      </c>
+      <c r="H25" s="19">
         <v>3</v>
       </c>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" s="20" customFormat="1">
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" s="18" customFormat="1">
       <c r="A26" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2455,25 +2377,25 @@
         <v>22</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="F26" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="21">
+        <v>134</v>
+      </c>
+      <c r="H26" s="19">
         <v>4</v>
       </c>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" s="20" customFormat="1">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" s="18" customFormat="1">
       <c r="A27" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2483,25 +2405,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="21">
+        <v>134</v>
+      </c>
+      <c r="H27" s="19">
         <v>5</v>
       </c>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" s="20" customFormat="1">
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" s="18" customFormat="1">
       <c r="A28" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="11" t="str">
         <f t="shared" si="2"/>
@@ -2511,41 +2433,41 @@
         <v>22</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="21">
+        <v>134</v>
+      </c>
+      <c r="H28" s="19">
         <v>6</v>
       </c>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" s="20" customFormat="1" ht="66">
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="66">
       <c r="A29" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="H29" s="16">
         <v>4</v>
@@ -2554,9 +2476,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="20" customFormat="1">
+    <row r="30" spans="1:9" s="18" customFormat="1">
       <c r="A30" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="11" t="str">
         <f>A$29</f>
@@ -2566,25 +2488,25 @@
         <v>22</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="21">
-        <v>1</v>
-      </c>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" s="20" customFormat="1">
+        <v>134</v>
+      </c>
+      <c r="H30" s="19">
+        <v>1</v>
+      </c>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" s="18" customFormat="1">
       <c r="A31" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="11" t="str">
         <f t="shared" ref="B31:B36" si="3">A$29</f>
@@ -2594,25 +2516,25 @@
         <v>22</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="21">
+        <v>134</v>
+      </c>
+      <c r="H31" s="19">
         <v>2</v>
       </c>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="1:9" s="20" customFormat="1">
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" s="18" customFormat="1">
       <c r="A32" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="11" t="str">
         <f t="shared" si="3"/>
@@ -2622,25 +2544,25 @@
         <v>22</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="21">
+        <v>134</v>
+      </c>
+      <c r="H32" s="19">
         <v>3</v>
       </c>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="1:9" s="20" customFormat="1">
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" s="18" customFormat="1">
       <c r="A33" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="11" t="str">
         <f t="shared" si="3"/>
@@ -2650,25 +2572,25 @@
         <v>22</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="21">
+        <v>134</v>
+      </c>
+      <c r="H33" s="19">
         <v>4</v>
       </c>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" s="20" customFormat="1">
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" s="18" customFormat="1">
       <c r="A34" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="11" t="str">
         <f t="shared" si="3"/>
@@ -2678,25 +2600,25 @@
         <v>22</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="21">
+        <v>134</v>
+      </c>
+      <c r="H34" s="19">
         <v>5</v>
       </c>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:9" s="20" customFormat="1">
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" s="18" customFormat="1">
       <c r="A35" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="11" t="str">
         <f t="shared" si="3"/>
@@ -2706,25 +2628,25 @@
         <v>22</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="21">
+        <v>134</v>
+      </c>
+      <c r="H35" s="19">
         <v>6</v>
       </c>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="1:9" s="20" customFormat="1">
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:9" s="18" customFormat="1">
       <c r="A36" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="11" t="str">
         <f t="shared" si="3"/>
@@ -2734,41 +2656,41 @@
         <v>22</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="F36" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="21">
+        <v>134</v>
+      </c>
+      <c r="H36" s="19">
         <v>7</v>
       </c>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="1:9" s="20" customFormat="1" ht="66">
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="66">
       <c r="A37" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="H37" s="16">
         <v>5</v>
@@ -2777,9 +2699,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="20" customFormat="1">
+    <row r="38" spans="1:9" s="18" customFormat="1">
       <c r="A38" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="11" t="str">
         <f>A$37</f>
@@ -2789,25 +2711,25 @@
         <v>22</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="21">
-        <v>1</v>
-      </c>
-      <c r="I38" s="22"/>
-    </row>
-    <row r="39" spans="1:9" s="20" customFormat="1">
+        <v>134</v>
+      </c>
+      <c r="H38" s="19">
+        <v>1</v>
+      </c>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" s="18" customFormat="1">
       <c r="A39" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="11" t="str">
         <f t="shared" ref="B39:B41" si="4">A$37</f>
@@ -2817,25 +2739,25 @@
         <v>22</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>93</v>
-      </c>
       <c r="F39" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="21">
+        <v>134</v>
+      </c>
+      <c r="H39" s="19">
         <v>2</v>
       </c>
-      <c r="I39" s="22"/>
-    </row>
-    <row r="40" spans="1:9" s="20" customFormat="1">
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:9" s="18" customFormat="1">
       <c r="A40" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="11" t="str">
         <f t="shared" si="4"/>
@@ -2845,25 +2767,25 @@
         <v>22</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="F40" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="21">
+        <v>134</v>
+      </c>
+      <c r="H40" s="19">
         <v>3</v>
       </c>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="1:9" s="20" customFormat="1">
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" s="18" customFormat="1">
       <c r="A41" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="11" t="str">
         <f t="shared" si="4"/>
@@ -2873,21 +2795,21 @@
         <v>22</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="F41" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="21">
+        <v>134</v>
+      </c>
+      <c r="H41" s="19">
         <v>4</v>
       </c>
-      <c r="I41" s="22"/>
+      <c r="I41" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2895,226 +2817,226 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1 F3:F5 F42:F1048576">
-    <cfRule type="cellIs" dxfId="71" priority="113" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="113" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="114" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6 F8:F12">
-    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="79" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="80" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="75" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="76" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="73" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="74" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="71" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="69" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="70" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="67" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="68" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="57" priority="65" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="57" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="53" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="52" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
